--- a/doxer-sample/src/test/resources/dataset/org/doxer/app/sample/hello/HelloServiceTest/No001_検索処理_正常_固定データ登録.xlsx
+++ b/doxer-sample/src/test/resources/dataset/org/doxer/app/sample/hello/HelloServiceTest/No001_検索処理_正常_固定データ登録.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16860" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16380" windowHeight="4245"/>
   </bookViews>
   <sheets>
     <sheet name="TCM_SAMPLE" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>TCM_SAMPLE_ID</t>
     <phoneticPr fontId="1"/>
@@ -29,6 +29,14 @@
   </si>
   <si>
     <t>はひふへほ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hatimiti</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -384,7 +392,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -410,7 +418,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15"/>
